--- a/biology/Zoologie/Bec-en-faucille_aigle/Bec-en-faucille_aigle.xlsx
+++ b/biology/Zoologie/Bec-en-faucille_aigle/Bec-en-faucille_aigle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutoxeres aquila
 Le Bec-en-faucille aigle (Eutoxeres aquila) est une espèce de colibris (famille des Trochilidae).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure environ 13 cm de longueur. Sa principale particularité est le bec très recourbé. Le dessus de son plumage est vert foncé et le dessous blanchâtre fortement rayé de sombre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure environ 13 cm de longueur. Sa principale particularité est le bec très recourbé. Le dessus de son plumage est vert foncé et le dessous blanchâtre fortement rayé de sombre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Colombie, au Costa Rica, en Équateur, au Panama et au Pérou.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes (jusqu'à 1 200 m au Costa Rica).
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Eutoxeres aquila aquila (Bourcier, 1847) ;
@@ -638,7 +658,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce colibri se nourrit principalement du nectar des fleurs d'Heliconia sur lesquelles il se pose.
 </t>
